--- a/Statystyki_2018/Template/obbk_.xlsx
+++ b/Statystyki_2018/Template/obbk_.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t xml:space="preserve">
 Nazwisko Imię sędziego
@@ -165,34 +165,19 @@
     <t>pow. 3 m-cy</t>
   </si>
   <si>
-    <t>4</t>
+    <t>11</t>
   </si>
   <si>
-    <t>inna funkcja</t>
+    <t>21</t>
   </si>
   <si>
-    <t>Wiceprezes</t>
+    <t>31</t>
   </si>
   <si>
-    <t>Kordyka</t>
+    <t>0</t>
   </si>
   <si>
-    <t>Krystian</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>sędzia liniowy</t>
-  </si>
-  <si>
-    <t>SSO</t>
-  </si>
-  <si>
-    <t>Kowalewska</t>
-  </si>
-  <si>
-    <t>Ula</t>
+    <t>12</t>
   </si>
 </sst>
 </file>
@@ -19435,6 +19420,9 @@
       <c r="E3" s="42">
         <v>0</v>
       </c>
+      <c r="F3" s="42">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="41" t="s">
@@ -19452,6 +19440,9 @@
       <c r="E4" s="42">
         <v>0</v>
       </c>
+      <c r="F4" s="42">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="41" t="s">
@@ -19467,6 +19458,9 @@
         <v>0</v>
       </c>
       <c r="E5" s="42">
+        <v>0</v>
+      </c>
+      <c r="F5" s="42">
         <v>0</v>
       </c>
     </row>
@@ -26959,7 +26953,7 @@
         <v>43</v>
       </c>
       <c r="G4" s="43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H4" s="23"/>
       <c r="I4" s="23"/>
@@ -27984,19 +27978,19 @@
       </c>
       <c r="B5" s="19"/>
       <c r="C5" s="43" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D5" s="43" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E5" s="43" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F5" s="43" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G5" s="43" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="H5" s="23"/>
       <c r="I5" s="23"/>
